--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4677.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4677.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohammad Saifuddin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4214</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +765,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>24/10/2018</t>
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4217</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>26/10/2018</t>
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4218</t>
+          <t>4218</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +859,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>14/12/2018</t>
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -908,7 +970,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1062,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>07/05/2019</t>
@@ -1008,7 +1069,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1109,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>15/05/2019</t>
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1156,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1144,7 +1203,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>02/06/2019</t>
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1296,7 +1354,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1356,7 +1413,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1408,7 +1465,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1460,7 +1517,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1512,7 +1569,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4416</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1609,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>06/03/2020</t>
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4420</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1612,7 +1668,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1664,7 +1720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1716,7 +1772,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1768,7 +1824,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1820,7 +1876,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1872,7 +1928,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1912,7 +1968,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>20/07/2021</t>
@@ -1920,7 +1975,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1959,7 +2014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1981,7 +2036,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2018,7 +2073,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2055,7 +2110,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2092,7 +2147,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2129,7 +2184,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4214</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2166,7 +2221,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4217</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2203,7 +2258,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4218</t>
+          <t>4218</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2240,7 +2295,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2277,7 +2332,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2314,7 +2369,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2351,7 +2406,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2388,7 +2443,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2425,7 +2480,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2462,7 +2517,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2499,7 +2554,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2536,7 +2591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2573,7 +2628,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2610,7 +2665,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2647,7 +2702,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2684,7 +2739,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2721,7 +2776,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2758,7 +2813,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4416</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2795,7 +2850,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4420</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2832,7 +2887,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2869,7 +2924,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2906,7 +2961,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2943,7 +2998,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2980,7 +3035,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3017,7 +3072,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3043,6 +3098,535 @@
       <c r="G29" t="inlineStr">
         <is>
           <t>3/87</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>18.18%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4307</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>17.83%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4416</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.72%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4420</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4447</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.68%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.58%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5.06%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11.57%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4677.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4677.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3191,9 +3192,6 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3206,10 +3204,6 @@
           <t>4295</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3225,9 +3219,6 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3240,10 +3231,6 @@
           <t>4307</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3256,299 +3243,635 @@
           <t>4311</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>17.83%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4416</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.72%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4420</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4447</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.68%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.58%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5.06%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11.57%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4307</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4314</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.79%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.76%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4345</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>17.83%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4416</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.72%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4420</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4416</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4447</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
+          <t>4420</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.68%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
+          <t>4447</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.58%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.06%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3558,27 +3881,14 @@
           <t>4477</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.90%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3588,27 +3898,14 @@
           <t>4479</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>9</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>11.57%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3618,15 +3915,14 @@
           <t>4481</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4677.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4677.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -766,6 +764,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>24/10/2018</t>
@@ -813,6 +812,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>26/10/2018</t>
@@ -860,6 +860,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>14/12/2018</t>
@@ -1063,6 +1064,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>07/05/2019</t>
@@ -1110,6 +1112,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>15/05/2019</t>
@@ -1157,6 +1160,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -1204,6 +1208,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>02/06/2019</t>
@@ -1355,6 +1360,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -1610,6 +1616,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>06/03/2020</t>
@@ -1969,6 +1976,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>20/07/2021</t>
@@ -3105,828 +3113,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4252</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>18.18%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4286</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4307</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4311</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4314</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.79%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.76%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4345</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>17.83%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4416</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.72%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4420</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4447</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.68%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.58%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.06%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4477</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.90%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>11.57%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4251</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4252</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4286</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4307</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4311</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4314</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4345</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4416</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4420</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4447</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4477</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>